--- a/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A395A009-D832-4FAB-A212-BDE853162FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD02164-6CE9-4B48-BF0C-FA8E488EB1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8BE2B1A7-3092-4C3D-9622-F6E48C52EB96}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FFB9E62C-475B-4D2E-8E65-9121F2CC5D1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>89,87%</t>
   </si>
   <si>
@@ -98,9 +197,6 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>10,13%</t>
   </si>
   <si>
@@ -128,64 +224,61 @@
     <t>16,84%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,99 +336,6 @@
   </si>
   <si>
     <t>28,7%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
   </si>
   <si>
     <t>87,03%</t>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA473252-2607-4506-B730-ABC1FE476CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B554B7-7A05-4FEC-9CA3-84C540DD0B05}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -899,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>91223</v>
+        <v>579</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -914,85 +914,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>48672</v>
+        <v>1593</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2172</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>170</v>
-      </c>
-      <c r="N4" s="7">
-        <v>139894</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1109</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1109</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>10282</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7177</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>17460</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1001,54 +1001,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>101505</v>
+        <v>1688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>55849</v>
+        <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>194</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>157354</v>
+        <v>3281</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1060,13 +1060,13 @@
         <v>37107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>42</v>
@@ -1075,13 +1075,13 @@
         <v>29040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -1090,19 +1090,19 @@
         <v>66146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -1111,13 +1111,13 @@
         <v>4858</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1126,13 +1126,13 @@
         <v>2859</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1141,13 +1141,13 @@
         <v>7717</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1162,13 +1162,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1177,13 +1177,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1192,117 +1192,117 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>105</v>
+      </c>
+      <c r="D10" s="7">
+        <v>91223</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7">
+        <v>48672</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7">
-        <v>38267</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="7">
+        <v>170</v>
+      </c>
+      <c r="N10" s="7">
+        <v>139894</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="7">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>41281</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="7">
-        <v>101</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79548</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>11611</v>
+        <v>10282</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7">
+        <v>7177</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="7">
+        <v>24</v>
+      </c>
+      <c r="N11" s="7">
+        <v>17460</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7">
-        <v>14</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9641</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="7">
-        <v>28</v>
-      </c>
-      <c r="N11" s="7">
-        <v>21252</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1311,150 +1311,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="D12" s="7">
-        <v>49878</v>
+        <v>101505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7">
-        <v>50922</v>
+        <v>55849</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="N12" s="7">
-        <v>100800</v>
+        <v>157354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>579</v>
+        <v>47510</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>52</v>
+      </c>
+      <c r="I13" s="7">
+        <v>46106</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="7">
+        <v>102</v>
+      </c>
+      <c r="N13" s="7">
+        <v>93617</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1593</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2172</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>1109</v>
+        <v>4136</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7476</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>16</v>
+      </c>
+      <c r="N14" s="7">
+        <v>11612</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1109</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -1466,49 +1466,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>1688</v>
+        <v>51646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>1593</v>
+        <v>53582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>118</v>
       </c>
       <c r="N15" s="7">
-        <v>3281</v>
+        <v>105229</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,10 +1519,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>47510</v>
+        <v>38267</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -1534,10 +1534,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>46106</v>
+        <v>41281</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -1549,10 +1549,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N16" s="7">
-        <v>93617</v>
+        <v>79548</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -1567,13 +1567,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>4136</v>
+        <v>11611</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -1585,10 +1585,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>7476</v>
+        <v>9641</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -1600,10 +1600,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>11612</v>
+        <v>21252</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1621,49 +1621,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>51646</v>
+        <v>49878</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I18" s="7">
-        <v>53582</v>
+        <v>50922</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N18" s="7">
-        <v>105229</v>
+        <v>100800</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,7 +1722,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>40</v>
@@ -1782,13 +1782,13 @@
         <v>246682</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H21" s="7">
         <v>257</v>
@@ -1797,13 +1797,13 @@
         <v>193846</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M21" s="7">
         <v>543</v>
@@ -1812,13 +1812,13 @@
         <v>440528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BD02164-6CE9-4B48-BF0C-FA8E488EB1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EEAF9B-98B3-4572-9958-A444876827D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FFB9E62C-475B-4D2E-8E65-9121F2CC5D1D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA00912-BE17-4828-A0E9-4CD0D69E6CEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
   </si>
@@ -68,18 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -92,304 +110,289 @@
     <t>17,11%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -496,39 +499,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -580,7 +583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -691,13 +694,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -706,6 +702,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -770,19 +773,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B554B7-7A05-4FEC-9CA3-84C540DD0B05}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B395DB2-46B3-4CEC-BF98-A0B0D1AEA08A}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -899,10 +922,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>579</v>
+        <v>1109</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -914,13 +937,13 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1593</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -929,19 +952,19 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>2172</v>
+        <v>1109</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -950,10 +973,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1109</v>
+        <v>579</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -965,13 +988,13 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
@@ -980,19 +1003,19 @@
         <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>1109</v>
+        <v>2172</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1007,13 +1030,13 @@
         <v>1688</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1022,13 +1045,13 @@
         <v>1593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1037,13 +1060,13 @@
         <v>3281</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1054,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>37107</v>
+        <v>4858</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>25</v>
@@ -1069,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>29040</v>
+        <v>2859</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>28</v>
@@ -1084,10 +1107,10 @@
         <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>66146</v>
+        <v>7717</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>31</v>
@@ -1105,10 +1128,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>4858</v>
+        <v>37107</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>34</v>
@@ -1120,10 +1143,10 @@
         <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>2859</v>
+        <v>29040</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1135,10 +1158,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="N8" s="7">
-        <v>7717</v>
+        <v>66146</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1162,13 +1185,13 @@
         <v>41965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
@@ -1177,13 +1200,13 @@
         <v>31899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -1192,13 +1215,13 @@
         <v>73863</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>91223</v>
+        <v>10282</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1224,10 +1247,10 @@
         <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>48672</v>
+        <v>7177</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1239,10 +1262,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>139894</v>
+        <v>17460</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -1260,10 +1283,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>10282</v>
+        <v>91223</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -1275,10 +1298,10 @@
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7">
-        <v>7177</v>
+        <v>48672</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1290,10 +1313,10 @@
         <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="N11" s="7">
-        <v>17460</v>
+        <v>139894</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1317,13 +1340,13 @@
         <v>101505</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
         <v>77</v>
@@ -1332,13 +1355,13 @@
         <v>55849</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
         <v>194</v>
@@ -1347,13 +1370,13 @@
         <v>157354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,10 +1387,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>47510</v>
+        <v>4136</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -1379,10 +1402,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>46106</v>
+        <v>7476</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -1394,10 +1417,10 @@
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>93617</v>
+        <v>11612</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
@@ -1415,10 +1438,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>4136</v>
+        <v>47510</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>72</v>
@@ -1430,10 +1453,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>7476</v>
+        <v>46106</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -1445,10 +1468,10 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="N14" s="7">
-        <v>11612</v>
+        <v>93617</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
@@ -1472,13 +1495,13 @@
         <v>51646</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>63</v>
@@ -1487,13 +1510,13 @@
         <v>53582</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
         <v>118</v>
@@ -1502,13 +1525,13 @@
         <v>105229</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,10 +1542,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>38267</v>
+        <v>11611</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>82</v>
@@ -1534,10 +1557,10 @@
         <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>41281</v>
+        <v>9641</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>85</v>
@@ -1549,10 +1572,10 @@
         <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>79548</v>
+        <v>21252</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>88</v>
@@ -1570,10 +1593,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D17" s="7">
-        <v>11611</v>
+        <v>38267</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>91</v>
@@ -1585,10 +1608,10 @@
         <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>9641</v>
+        <v>41281</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>94</v>
@@ -1600,10 +1623,10 @@
         <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N17" s="7">
-        <v>21252</v>
+        <v>79548</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>97</v>
@@ -1627,13 +1650,13 @@
         <v>49878</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
         <v>67</v>
@@ -1642,13 +1665,13 @@
         <v>50922</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>129</v>
@@ -1657,13 +1680,13 @@
         <v>100800</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>214685</v>
+        <v>31997</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>100</v>
@@ -1689,10 +1712,10 @@
         <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>166693</v>
+        <v>27153</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>103</v>
@@ -1704,10 +1727,10 @@
         <v>105</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="N19" s="7">
-        <v>381378</v>
+        <v>59150</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>106</v>
@@ -1725,10 +1748,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="D20" s="7">
-        <v>31997</v>
+        <v>214685</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>109</v>
@@ -1740,10 +1763,10 @@
         <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="I20" s="7">
-        <v>27153</v>
+        <v>166693</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>112</v>
@@ -1755,10 +1778,10 @@
         <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="N20" s="7">
-        <v>59150</v>
+        <v>381378</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>115</v>
@@ -1782,13 +1805,13 @@
         <v>246682</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>257</v>
@@ -1797,13 +1820,13 @@
         <v>193846</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>543</v>
@@ -1812,13 +1835,18 @@
         <v>440528</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EEAF9B-98B3-4572-9958-A444876827D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CC1E55-C590-41C2-B729-5D0C8843F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA00912-BE17-4828-A0E9-4CD0D69E6CEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{901189AE-C2DC-41C5-A38D-AD05DFE5E96B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -89,7 +89,7 @@
     <t>33,8%</t>
   </si>
   <si>
-    <t>82,89%</t>
+    <t>82,36%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,178 +107,178 @@
     <t>66,2%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>88,42%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>11,1%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -287,109 +287,109 @@
     <t>23,28%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>76,72%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B395DB2-46B3-4CEC-BF98-A0B0D1AEA08A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD54189D-67A3-4DC4-82AB-1E3C97C89795}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CC1E55-C590-41C2-B729-5D0C8843F73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9ADD0F-A95D-424D-B967-887B672C4255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{901189AE-C2DC-41C5-A38D-AD05DFE5E96B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0E3E3C4-46C8-48F3-882A-0ACE976341B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling en su colegio en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,331 +65,541 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>&lt;10.000 hab</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -804,8 +1014,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD54189D-67A3-4DC4-82AB-1E3C97C89795}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE56BD54-2448-48FC-B85D-C801C943A06E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -922,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>1109</v>
+        <v>14528</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -937,240 +1147,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>27069</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>1109</v>
+        <v>41596</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>579</v>
+        <v>15464</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>1593</v>
+        <v>15462</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="N5" s="7">
-        <v>2172</v>
+        <v>30926</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1688</v>
+        <v>1181</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>1593</v>
+        <v>4615</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>3281</v>
+        <v>5796</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>4858</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>2859</v>
+        <v>876</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>7717</v>
+        <v>876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
-        <v>37107</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>29040</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>66146</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1179,308 +1387,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="7">
-        <v>41965</v>
+        <v>31173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I9" s="7">
-        <v>31899</v>
+        <v>48021</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N9" s="7">
-        <v>73863</v>
+        <v>79194</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>10282</v>
+        <v>25589</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>7177</v>
+        <v>48051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>17460</v>
+        <v>73640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>91223</v>
+        <v>25517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7">
+        <v>43218</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="7">
-        <v>48672</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>139894</v>
+        <v>68734</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>101505</v>
+        <v>1373</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
+        <v>9</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8276</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="7">
+        <v>11</v>
+      </c>
+      <c r="N12" s="7">
+        <v>9649</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="7">
-        <v>55849</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7">
-        <v>194</v>
-      </c>
-      <c r="N12" s="7">
-        <v>157354</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>4136</v>
+        <v>1154</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>7476</v>
+        <v>1774</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>11612</v>
+        <v>2929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>47510</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>46106</v>
+        <v>596</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>93617</v>
+        <v>596</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,308 +1695,306 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>51646</v>
+        <v>53633</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H15" s="7">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="I15" s="7">
-        <v>53582</v>
+        <v>101915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="N15" s="7">
-        <v>105229</v>
+        <v>155548</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>11611</v>
+        <v>26684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>9641</v>
+        <v>38577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="N16" s="7">
-        <v>21252</v>
+        <v>65260</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7">
-        <v>38267</v>
+        <v>43565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>41281</v>
+        <v>22866</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>79548</v>
+        <v>66431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>62</v>
-      </c>
       <c r="D18" s="7">
-        <v>49878</v>
+        <v>1935</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>50922</v>
+        <v>3535</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="M18" s="7">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>100800</v>
+        <v>5470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>31997</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>27153</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M19" s="7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>59150</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>214685</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>166693</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>381378</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,68 +2003,683 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>246682</v>
+        <v>72183</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H21" s="7">
-        <v>257</v>
+        <v>65</v>
       </c>
       <c r="I21" s="7">
-        <v>193846</v>
+        <v>64978</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M21" s="7">
-        <v>543</v>
+        <v>131</v>
       </c>
       <c r="N21" s="7">
-        <v>440528</v>
+        <v>137161</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7">
+        <v>30492</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="G22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="7">
+        <v>35</v>
+      </c>
+      <c r="I22" s="7">
+        <v>27240</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" s="7">
+        <v>76</v>
+      </c>
+      <c r="N22" s="7">
+        <v>57732</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7">
+        <v>20660</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="7">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7">
+        <v>21068</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M23" s="7">
+        <v>56</v>
+      </c>
+      <c r="N23" s="7">
+        <v>41728</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2331</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7158</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9489</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>905</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+      <c r="N25" s="7">
+        <v>905</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>75</v>
+      </c>
+      <c r="D27" s="7">
+        <v>53483</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="7">
+        <v>70</v>
+      </c>
+      <c r="I27" s="7">
+        <v>56371</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="7">
+        <v>145</v>
+      </c>
+      <c r="N27" s="7">
+        <v>109854</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>138</v>
+      </c>
+      <c r="D28" s="7">
+        <v>97293</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="7">
+        <v>154</v>
+      </c>
+      <c r="I28" s="7">
+        <v>140937</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M28" s="7">
+        <v>292</v>
+      </c>
+      <c r="N28" s="7">
+        <v>238229</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="7">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7">
+        <v>105205</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7">
+        <v>121</v>
+      </c>
+      <c r="I29" s="7">
+        <v>102614</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M29" s="7">
+        <v>241</v>
+      </c>
+      <c r="N29" s="7">
+        <v>207819</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6820</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27</v>
+      </c>
+      <c r="I30" s="7">
+        <v>23583</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M30" s="7">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7">
+        <v>30403</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3555</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4709</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>596</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>596</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="7">
+        <v>306</v>
+      </c>
+      <c r="I33" s="7">
+        <v>271285</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="7">
+        <v>576</v>
+      </c>
+      <c r="N33" s="7">
+        <v>481757</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
+  <mergeCells count="9">
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
